--- a/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Matematicas\fuentes\contenidos\grado11\guion04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado11\guion04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$32</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -845,13 +845,13 @@
     <t>Recurso M5A-04</t>
   </si>
   <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Recurso M4A-02</t>
-  </si>
-  <si>
-    <t>Recurso M4A-03</t>
+    <t>Recurso M102AB-02</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-03</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-04</t>
   </si>
 </sst>
 </file>
@@ -1161,34 +1161,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,6 +1210,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1537,127 +1537,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T27" sqref="T27"/>
+      <selection pane="bottomLeft" activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.4" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" customWidth="1"/>
-    <col min="3" max="3" width="26.73046875" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" customWidth="1"/>
-    <col min="5" max="5" width="42.59765625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.265625" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="49" customWidth="1"/>
-    <col min="11" max="11" width="13.265625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="6.73046875" customWidth="1"/>
-    <col min="14" max="14" width="7.73046875" customWidth="1"/>
-    <col min="15" max="15" width="54.1328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.3984375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7.73046875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.86328125" customWidth="1"/>
-    <col min="19" max="19" width="10.3984375" customWidth="1"/>
-    <col min="20" max="20" width="17.1328125" customWidth="1"/>
-    <col min="21" max="21" width="13.59765625" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="54.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
+    <row r="2" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="44"/>
-    </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
+    </row>
+    <row r="3" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M7" s="27"/>
       <c r="N7" s="27" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="O7" s="23" t="s">
         <v>239</v>
@@ -1954,7 +1954,7 @@
         <v>158</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="U7" s="19" t="s">
         <v>159</v>
@@ -1963,7 +1963,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="M12" s="27"/>
       <c r="N12" s="27" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="O12" s="23" t="s">
         <v>242</v>
@@ -2262,7 +2262,7 @@
         <v>158</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U12" s="19" t="s">
         <v>159</v>
@@ -2271,7 +2271,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="M16" s="27"/>
       <c r="N16" s="27" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="O16" s="23" t="s">
         <v>251</v>
@@ -2509,7 +2509,7 @@
         <v>158</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U16" s="19" t="s">
         <v>159</v>
@@ -2518,7 +2518,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>15</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
@@ -3305,13 +3305,13 @@
         <v>158</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="U29" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="37" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="37" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
@@ -13759,7 +13759,7 @@
       <c r="XFB30" s="38"/>
       <c r="XFD30" s="40"/>
     </row>
-    <row r="31" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>15</v>
       </c>
@@ -13881,187 +13881,187 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -14071,6 +14071,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -14085,12 +14091,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V7" r:id="rId1"/>
@@ -14101,7 +14101,7 @@
   <pageSetup orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
@@ -14146,27 +14146,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="2"/>
-    <col min="14" max="14" width="24.265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.86328125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="2"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -14207,7 +14207,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -14226,7 +14226,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -14245,7 +14245,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -14261,7 +14261,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -14278,7 +14278,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -14295,7 +14295,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -14310,7 +14310,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -14325,7 +14325,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -14340,7 +14340,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -14355,7 +14355,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -14370,7 +14370,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -14385,7 +14385,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -14400,7 +14400,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -14415,7 +14415,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -14430,7 +14430,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -14444,7 +14444,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -14458,7 +14458,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -14472,7 +14472,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -14486,7 +14486,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -14501,7 +14501,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -14516,7 +14516,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -14531,7 +14531,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -14546,7 +14546,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -14561,7 +14561,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -14576,7 +14576,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -14591,7 +14591,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -14606,7 +14606,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -14621,7 +14621,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -14636,7 +14636,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -14651,7 +14651,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -14666,7 +14666,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -14681,7 +14681,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -14696,7 +14696,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -14711,7 +14711,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -14726,7 +14726,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -14741,7 +14741,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -14756,7 +14756,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -14771,7 +14771,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -14786,7 +14786,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -14801,7 +14801,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -14816,7 +14816,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -14831,7 +14831,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -14846,7 +14846,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -14861,7 +14861,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -14876,7 +14876,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -14891,7 +14891,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -14906,7 +14906,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -14918,7 +14918,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -14930,7 +14930,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -14943,7 +14943,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -14956,7 +14956,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -14969,7 +14969,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -14982,7 +14982,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -14995,7 +14995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -15008,7 +15008,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -15021,7 +15021,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -15034,7 +15034,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -15047,7 +15047,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -15060,7 +15060,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -15073,7 +15073,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -15086,7 +15086,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -15099,7 +15099,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -15112,7 +15112,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -15125,7 +15125,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -15138,7 +15138,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -15151,7 +15151,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -15164,7 +15164,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -15177,7 +15177,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -15190,7 +15190,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -15204,7 +15204,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -15218,7 +15218,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -15232,7 +15232,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -15246,7 +15246,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -15260,7 +15260,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -15274,7 +15274,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -15288,7 +15288,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -15302,7 +15302,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -15316,7 +15316,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -15330,7 +15330,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -15344,7 +15344,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -15358,7 +15358,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -15372,7 +15372,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -15386,7 +15386,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -15400,7 +15400,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -15414,7 +15414,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -15428,7 +15428,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -15442,7 +15442,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -15456,7 +15456,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -15470,7 +15470,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -15484,7 +15484,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -15498,7 +15498,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -15512,7 +15512,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -15526,7 +15526,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -15540,7 +15540,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -15554,7 +15554,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -15568,7 +15568,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -15582,7 +15582,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -15596,7 +15596,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -15610,7 +15610,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -15624,7 +15624,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -15638,7 +15638,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -15652,7 +15652,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -15666,7 +15666,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -15680,7 +15680,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -15694,7 +15694,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -15708,7 +15708,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -15722,7 +15722,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -15736,7 +15736,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -15750,7 +15750,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -15764,7 +15764,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -15778,7 +15778,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -15792,7 +15792,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -15806,7 +15806,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -15820,7 +15820,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -15834,7 +15834,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -15848,7 +15848,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -15862,7 +15862,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -15876,7 +15876,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -15890,7 +15890,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -15904,7 +15904,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -15918,7 +15918,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -15932,7 +15932,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -15946,7 +15946,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -15960,7 +15960,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -15974,7 +15974,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -15988,7 +15988,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -16002,7 +16002,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -16016,7 +16016,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -16030,7 +16030,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -16044,7 +16044,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -16058,7 +16058,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado11\guion04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="14140"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$32</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -990,51 +990,51 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1161,16 +1161,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,24 +1228,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1291,7 +1291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1326,7 +1326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1537,127 +1537,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T29" sqref="T29"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.5" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="49" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="54.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" customWidth="1"/>
+    <col min="15" max="15" width="54.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="6" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="17.1640625" customWidth="1"/>
+    <col min="21" max="21" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+    <row r="2" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickBot="1">
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59"/>
-    </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="44"/>
+    </row>
+    <row r="3" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickTop="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>232</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="19">
         <v>6</v>
@@ -2024,7 +2024,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>244</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="19">
         <v>6</v>
@@ -2393,7 +2393,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>15</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="37" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="37" customFormat="1" ht="12.5" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
@@ -13759,7 +13759,7 @@
       <c r="XFB30" s="38"/>
       <c r="XFD30" s="40"/>
     </row>
-    <row r="31" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>15</v>
       </c>
@@ -13881,187 +13881,187 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="12.5" customHeight="1">
       <c r="A47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="12.5" customHeight="1">
       <c r="A48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="12.5" customHeight="1">
       <c r="A49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="12.5" customHeight="1">
       <c r="A50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="12.5" customHeight="1">
       <c r="A51" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="12.5" customHeight="1">
       <c r="A52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="12.5" customHeight="1">
       <c r="A53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="12.5" customHeight="1">
       <c r="A54" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="12.5" customHeight="1">
       <c r="A55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="12.5" customHeight="1">
       <c r="A56" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="12.5" customHeight="1">
       <c r="A57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="12.5" customHeight="1">
       <c r="A58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="12.5" customHeight="1">
       <c r="A59" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="12.5" customHeight="1">
       <c r="A60" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="12.5" customHeight="1">
       <c r="A61" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="12.5" customHeight="1">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="12.5" customHeight="1">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="12.5" customHeight="1">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="12.5" customHeight="1">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="12.5" customHeight="1">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="12.5" customHeight="1">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="12.5" customHeight="1">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="12.5" customHeight="1">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="12.5" customHeight="1">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="12.5" customHeight="1">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="12.5" customHeight="1">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="12.5" customHeight="1">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="12.5" customHeight="1">
       <c r="A74" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="12.5" customHeight="1">
       <c r="A75" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="12.5" customHeight="1">
       <c r="A76" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="12.5" customHeight="1">
       <c r="A77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="12.5" customHeight="1">
       <c r="A78" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="12.5" customHeight="1">
       <c r="A79" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="12.5" customHeight="1">
       <c r="A80" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="12.5" customHeight="1">
       <c r="A81" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="12.5" customHeight="1">
       <c r="A82" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="12.5" customHeight="1">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -14071,12 +14071,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -14091,6 +14085,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V7" r:id="rId1"/>
@@ -14098,7 +14098,6 @@
     <hyperlink ref="V12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -14134,6 +14133,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -14142,31 +14144,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C20" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="2"/>
-    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="13" max="13" width="11.5" style="2"/>
+    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -14183,7 +14185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -14207,7 +14209,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -14226,7 +14228,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -14245,7 +14247,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -14261,7 +14263,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -14278,7 +14280,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -14295,7 +14297,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -14310,7 +14312,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -14325,7 +14327,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -14340,7 +14342,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -14355,7 +14357,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -14370,7 +14372,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -14385,7 +14387,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -14400,7 +14402,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -14415,7 +14417,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -14430,7 +14432,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -14444,7 +14446,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -14458,7 +14460,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -14472,7 +14474,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -14486,7 +14488,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -14501,7 +14503,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -14516,7 +14518,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -14531,7 +14533,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -14546,7 +14548,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -14561,7 +14563,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -14576,7 +14578,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -14591,7 +14593,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -14606,7 +14608,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -14621,7 +14623,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -14636,7 +14638,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -14651,7 +14653,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -14666,7 +14668,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -14681,7 +14683,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -14696,7 +14698,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -14711,7 +14713,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -14726,7 +14728,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -14741,7 +14743,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -14756,7 +14758,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -14771,7 +14773,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -14786,7 +14788,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -14801,7 +14803,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -14816,7 +14818,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -14831,7 +14833,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -14846,7 +14848,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -14861,7 +14863,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -14876,7 +14878,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -14891,7 +14893,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -14906,7 +14908,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -14918,7 +14920,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -14930,7 +14932,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -14943,7 +14945,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -14956,7 +14958,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -14969,7 +14971,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -14982,7 +14984,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -14995,7 +14997,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -15008,7 +15010,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -15021,7 +15023,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -15034,7 +15036,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -15047,7 +15049,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -15060,7 +15062,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -15073,7 +15075,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -15086,7 +15088,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -15099,7 +15101,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -15112,7 +15114,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -15125,7 +15127,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -15138,7 +15140,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -15151,7 +15153,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -15164,7 +15166,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -15177,7 +15179,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -15190,7 +15192,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -15204,7 +15206,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -15218,7 +15220,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -15232,7 +15234,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -15246,7 +15248,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -15260,7 +15262,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -15274,7 +15276,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -15288,7 +15290,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -15302,7 +15304,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -15316,7 +15318,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -15330,7 +15332,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -15344,7 +15346,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -15358,7 +15360,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -15372,7 +15374,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -15386,7 +15388,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -15400,7 +15402,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -15414,7 +15416,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -15428,7 +15430,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -15442,7 +15444,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -15456,7 +15458,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -15470,7 +15472,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -15484,7 +15486,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -15498,7 +15500,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -15512,7 +15514,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -15526,7 +15528,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -15540,7 +15542,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -15554,7 +15556,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -15568,7 +15570,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -15582,7 +15584,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -15596,7 +15598,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -15610,7 +15612,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -15624,7 +15626,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -15638,7 +15640,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -15652,7 +15654,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -15666,7 +15668,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -15680,7 +15682,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -15694,7 +15696,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -15708,7 +15710,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -15722,7 +15724,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -15736,7 +15738,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -15750,7 +15752,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -15764,7 +15766,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -15778,7 +15780,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -15792,7 +15794,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -15806,7 +15808,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -15820,7 +15822,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -15834,7 +15836,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -15848,7 +15850,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -15862,7 +15864,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -15876,7 +15878,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -15890,7 +15892,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -15904,7 +15906,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -15918,7 +15920,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -15932,7 +15934,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -15946,7 +15948,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -15960,7 +15962,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -15974,7 +15976,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -15988,7 +15990,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -16002,7 +16004,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -16016,7 +16018,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -16030,7 +16032,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -16044,7 +16046,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -16058,7 +16060,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -16095,6 +16097,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
@@ -803,9 +803,6 @@
     <t>Dada una segunda derivada de una función, solicitar al estudiante ubicar etiquetas de lo que sucede a la función inicial y a la primera derivada.  Puede ser que la segunda derivada sea la clásica cuadrática f(x) = x^2.  Las etiquetas deben incluir el reconocimiento de que la gráfica original tuvo al menos un cambio de concavidad, que la primera derivada tuvo crecimiento y decrecimiento en algunos intervalos, etc.</t>
   </si>
   <si>
-    <t>Interactivo en el que se presenta un problema  en una ciencia que use la matemática aplicada y la derivada o modelo funcional para la explicación de un fenómeno específico.</t>
-  </si>
-  <si>
     <t>Crear al menos 3 secciones, en las que aparezcan ciencias o problemas cuyo modelo es funcional y cuya solución se realiza aplicando razones de cambio o criterios de la primera y segunda derivada y reinterpretando términos. Pueden ser economía, ingeniería, ciencias humanas, etc. Por ejemplo el problema de las reacción química que produce el alcohol dada una cierta cantidad de azucar y levadura y los cambios relativos allí; estudiar que la cantidad de levadura aumenta por reproducción, pero muere luego por la infestación de alcohol, al tiempo que disminuye la cantidad de azucar, etc. O mostrar cómo cambia la temperatura de un líquido al ponerlo en un horno microhondas y las razones de cambio allí. O mostrar qué sucede ante la picadura de un insecto, qué pasa cuando se aplica un medicamento calmante para la picadura, etc.</t>
   </si>
   <si>
@@ -852,6 +849,9 @@
   </si>
   <si>
     <t>Recurso M102AB-04</t>
+  </si>
+  <si>
+    <t>Interactivo en el que se presentan problemas sobre derivadas</t>
   </si>
 </sst>
 </file>
@@ -1161,34 +1161,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,6 +1210,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1539,7 +1539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1568,94 +1568,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickTop="1">
       <c r="A3" s="7" t="s">
@@ -2262,7 +2262,7 @@
         <v>158</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U12" s="19" t="s">
         <v>159</v>
@@ -2387,7 +2387,7 @@
         <v>158</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U14" s="19" t="s">
         <v>159</v>
@@ -2509,7 +2509,7 @@
         <v>158</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U16" s="19" t="s">
         <v>159</v>
@@ -2737,7 +2737,7 @@
         <v>5</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="23" t="s">
@@ -2817,7 +2817,7 @@
         <v>158</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U21" s="19" t="s">
         <v>159</v>
@@ -3000,7 +3000,7 @@
         <v>158</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U24" s="19" t="s">
         <v>159</v>
@@ -3094,7 +3094,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>20</v>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="N26" s="27"/>
       <c r="O26" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P26" s="28" t="s">
         <v>19</v>
@@ -3168,7 +3168,7 @@
         <v>67</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P27" s="28" t="s">
         <v>19</v>
@@ -3183,7 +3183,7 @@
         <v>158</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U27" s="19" t="s">
         <v>159</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -3216,7 +3216,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>20</v>
@@ -3244,7 +3244,7 @@
         <v>158</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U28" s="19" t="s">
         <v>159</v>
@@ -3290,7 +3290,7 @@
         <v>84</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P29" s="28" t="s">
         <v>19</v>
@@ -3305,7 +3305,7 @@
         <v>158</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U29" s="19" t="s">
         <v>159</v>
@@ -13799,7 +13799,7 @@
         <v>103</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>19</v>
@@ -13814,7 +13814,7 @@
         <v>158</v>
       </c>
       <c r="T31" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U31" s="34" t="s">
         <v>159</v>
@@ -14071,6 +14071,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -14085,12 +14091,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V7" r:id="rId1"/>

--- a/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="276">
   <si>
     <t>Asignatura</t>
   </si>
@@ -527,18 +527,12 @@
     <t>Calcula la función derivada usando Geogebra</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad en la que se identifica la función derivada como continuo de las pendientes de las rectas tangentes en diversos puntos de una función </t>
-  </si>
-  <si>
     <t>VER</t>
   </si>
   <si>
     <t>Actividad en la que se explica cómo usar el software para calcular la función derivada</t>
   </si>
   <si>
-    <t>Actividad para reforzar el concepto de derivada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proponer ejercicios en los que se aproxime el valor de la pendiente de la recta tangente a una función en un punto aplicando límites laterales, es decir aproximaciones por derecha e izquierda la pendiente de la recta tangente en puntos cercanos a un punto dado. </t>
   </si>
   <si>
@@ -575,12 +569,6 @@
     <t>Actividad para ejercitar el cálculo de derivadas de funciones trigonométricas</t>
   </si>
   <si>
-    <t>Calcula derivadas implícitas</t>
-  </si>
-  <si>
-    <t>Actividad para ejercitar el cálculo de derivadas implícitas</t>
-  </si>
-  <si>
     <t>Diferencias entre el teorema de Rolle, el del valor medio y el del valor intermedio</t>
   </si>
   <si>
@@ -590,9 +578,6 @@
     <t>Incluir los nombres de los teoremas y su enunciación para que se haga la correspondencia. Se pueden incluir afirmaciones que se siguen por la aplicación del Teorema</t>
   </si>
   <si>
-    <t>Actividad para reforzar las reglas de derivación</t>
-  </si>
-  <si>
     <t>Proponer preguntas abiertas sobre las reglas de derivación y los temas asociados.</t>
   </si>
   <si>
@@ -620,9 +605,6 @@
     <t>Actividad para identificar propiedades de una función, dada la segunda derivada</t>
   </si>
   <si>
-    <t>Actividad para identificar propiedades de la derivada, dada la gráfica</t>
-  </si>
-  <si>
     <t>Soluciona problemas empleando diferenciales</t>
   </si>
   <si>
@@ -638,9 +620,6 @@
     <t>Actividad para aplicar la Regla de L'Hopital en el cálculo de límites</t>
   </si>
   <si>
-    <t>Evalua tus conocimientos sobre la derivada y sus aplicaciones</t>
-  </si>
-  <si>
     <t>Fin de la unidad</t>
   </si>
   <si>
@@ -653,18 +632,9 @@
     <t>Banco de actividades para el tema de la derivada y sus aplicaciones</t>
   </si>
   <si>
-    <t>Actividades para evaluar los temas vistos acerca de la derivada y sus aplicaciones</t>
-  </si>
-  <si>
     <t>Proponer situaciones, preguntas o problemas de aplicación cuya solución se logre aplicando razones de cambio, diferenciales y Regla de L´Hopital</t>
   </si>
   <si>
-    <t>Competencias: Modelando curvas y velocidad</t>
-  </si>
-  <si>
-    <t>Actividad para aplicar la definición de la derivada y sus aplicaciones, mediada por sotware</t>
-  </si>
-  <si>
     <t>Banco de actividades para "La derivada y sus aplicaciones"</t>
   </si>
   <si>
@@ -737,9 +707,6 @@
     <t>Proponer ejercicios sobre funciones cotidianas, en las que se aplique la definición de límite para encontrar la derivada de la función (buscar que sea independiente del punto). Veáse DBA 3. Procurar que sean al menos 8 ejercicios, uno de cada tipo de función (polinómica, periodica, racional, exponencial, logarítmica) entre las que además aparezcan funciones a trozos o con discontinuidad cuya derivada en un punto no exista o esté indefinida.</t>
   </si>
   <si>
-    <t>Actividad de emparejamiento en la que el estudiante reconoce distintas concepciones de la derivada</t>
-  </si>
-  <si>
     <t>Obtiene la gráfica de la derivada a partir de la función</t>
   </si>
   <si>
@@ -776,15 +743,9 @@
     <t>¿Cuál es la relación entre el Teorema de Rolle y el de Lagrange?</t>
   </si>
   <si>
-    <t>Actividad para que el estudiante reconoza que el Teorema de Rolle es un caso particular del Teorema de Lagrange o Teorema del valor medio</t>
-  </si>
-  <si>
     <t>Plantear en la formulación de las preguntas que el estudiante ingrese al vínculo https://tube.geogebra.org/m/2108413 y formular preguntas en las que los estudiantes logren identificar que alfa muestra la solución, porque en alfa la pendiente es la misma que la de la recta que une f(a) con f(b). Hacer ver que hay intervalos con dos alfas posibles,  Preguntar por ejemplo dónde deben ponerse a y b para que el Teorema sea el de Rolle, si es falsa o verdadera una afirmación del tipo "El teorema de Lagrange no se puede aplicar porque f(a) =/ f(b)" etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para especificar, dadas algunas funciones, sus puntos críticos y los intervalos de crecimiento o decrecimiento de la función. Al menos cuatro preguntas deben dar la gráfica de la derivada y preguntar por condiciones de la función, o al revés. Por ejemplo dado que la función f'(x) = 2x, se puede afirmar que la función original tiene un mínimo o máximo en x=0 </t>
-  </si>
-  <si>
     <t>Interactivo para explicar cuál es la razón por la que la función exponencial permanece invariante bajo derivación exactamente para el caso en que la base es el número de Euler</t>
   </si>
   <si>
@@ -852,6 +813,45 @@
   </si>
   <si>
     <t>Interactivo en el que se presentan problemas sobre derivadas</t>
+  </si>
+  <si>
+    <t>Actividad para especificar, dadas algunas funciones, sus puntos críticos y los intervalos de crecimiento o decrecimiento de la función.</t>
+  </si>
+  <si>
+    <t>Competencias: Optimización</t>
+  </si>
+  <si>
+    <t>Actividad para aplicar la definición de la derivada en problemas de optimización de materiales</t>
+  </si>
+  <si>
+    <t>Mapa conceptual sobre La derivada y sus aplicaciones</t>
+  </si>
+  <si>
+    <t>Actividades para evaluar La derivada y sus aplicaciones</t>
+  </si>
+  <si>
+    <t>Actividad sobre las distintas concepciones del concepto de derivada</t>
+  </si>
+  <si>
+    <t>Actividad en la que se relaciona la función y la función derivada</t>
+  </si>
+  <si>
+    <t>Actividad sobre El concepto de derivada</t>
+  </si>
+  <si>
+    <t>Calcula derivadas de funciones dadas en forma implícita</t>
+  </si>
+  <si>
+    <t>Actividad para ejercitar el cálculo de derivadas de funciones implícitas</t>
+  </si>
+  <si>
+    <t>Actividad para que el estudiante reconoza que el Teorema de Rolle es un caso particular del Teorema de Lagrange</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar Las reglas de derivación</t>
+  </si>
+  <si>
+    <t>Actividad sobre El análisis de gráficas</t>
   </si>
 </sst>
 </file>
@@ -1161,16 +1161,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,24 +1228,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1539,7 +1539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1568,94 +1568,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickBot="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickTop="1">
       <c r="A3" s="7" t="s">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="17" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>19</v>
@@ -1710,7 +1710,7 @@
         <v>155</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="U3" s="19" t="s">
         <v>156</v>
@@ -1756,7 +1756,7 @@
         <v>103</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>19</v>
@@ -1771,7 +1771,7 @@
         <v>158</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>159</v>
@@ -1804,7 +1804,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>20</v>
@@ -1832,7 +1832,7 @@
         <v>158</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="U5" s="19" t="s">
         <v>159</v>
@@ -1878,7 +1878,7 @@
         <v>67</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>19</v>
@@ -1893,7 +1893,7 @@
         <v>158</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="U6" s="19" t="s">
         <v>159</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="12" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H7" s="24">
         <v>5</v>
@@ -1926,7 +1926,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>20</v>
@@ -1939,7 +1939,7 @@
         <v>120</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>19</v>
@@ -1954,13 +1954,13 @@
         <v>158</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="U7" s="19" t="s">
         <v>159</v>
       </c>
       <c r="V7" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
@@ -1990,7 +1990,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>20</v>
@@ -1999,11 +1999,11 @@
         <v>5</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="23" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>20</v>
@@ -2018,7 +2018,7 @@
         <v>155</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="U8" s="19" t="s">
         <v>156</v>
@@ -2051,7 +2051,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>20</v>
@@ -2064,7 +2064,7 @@
         <v>82</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P9" s="28" t="s">
         <v>19</v>
@@ -2079,7 +2079,7 @@
         <v>158</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="U9" s="19" t="s">
         <v>159</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H10" s="24">
         <v>8</v>
@@ -2112,7 +2112,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>20</v>
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="P10" s="28" t="s">
         <v>19</v>
@@ -2140,7 +2140,7 @@
         <v>158</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="U10" s="19" t="s">
         <v>159</v>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H11" s="24">
         <v>9</v>
@@ -2173,7 +2173,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>20</v>
@@ -2186,7 +2186,7 @@
         <v>67</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P11" s="28" t="s">
         <v>19</v>
@@ -2201,7 +2201,7 @@
         <v>158</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="U11" s="19" t="s">
         <v>159</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H12" s="11">
         <v>10</v>
@@ -2234,7 +2234,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         <v>120</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="P12" s="28" t="s">
         <v>19</v>
@@ -2262,13 +2262,13 @@
         <v>158</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="U12" s="19" t="s">
         <v>159</v>
       </c>
       <c r="V12" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H13" s="24">
         <v>11</v>
@@ -2298,7 +2298,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>20</v>
@@ -2311,7 +2311,7 @@
         <v>94</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="P13" s="28" t="s">
         <v>19</v>
@@ -2326,7 +2326,7 @@
         <v>158</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="U13" s="19" t="s">
         <v>159</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="12" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="H14" s="24">
         <v>12</v>
@@ -2359,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>20</v>
@@ -2372,7 +2372,7 @@
         <v>67</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="P14" s="28" t="s">
         <v>19</v>
@@ -2387,7 +2387,7 @@
         <v>158</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="U14" s="19" t="s">
         <v>159</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="12" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H15" s="11">
         <v>13</v>
@@ -2420,7 +2420,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>20</v>
@@ -2433,7 +2433,7 @@
         <v>103</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>19</v>
@@ -2448,7 +2448,7 @@
         <v>158</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="U15" s="19" t="s">
         <v>159</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="12" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H16" s="24">
         <v>14</v>
@@ -2481,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>20</v>
@@ -2494,10 +2494,10 @@
         <v>120</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="19">
         <v>6</v>
@@ -2509,13 +2509,13 @@
         <v>158</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="U16" s="19" t="s">
         <v>159</v>
       </c>
       <c r="V16" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H17" s="24">
         <v>15</v>
@@ -2545,7 +2545,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>20</v>
@@ -2558,7 +2558,7 @@
         <v>93</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P17" s="28" t="s">
         <v>19</v>
@@ -2573,7 +2573,7 @@
         <v>158</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="U17" s="19" t="s">
         <v>159</v>
@@ -2606,7 +2606,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>20</v>
@@ -2619,7 +2619,7 @@
         <v>82</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P18" s="28" t="s">
         <v>19</v>
@@ -2634,7 +2634,7 @@
         <v>158</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="U18" s="19" t="s">
         <v>159</v>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H19" s="24">
         <v>17</v>
@@ -2667,7 +2667,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>20</v>
@@ -2680,7 +2680,7 @@
         <v>103</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P19" s="28" t="s">
         <v>19</v>
@@ -2695,7 +2695,7 @@
         <v>158</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="U19" s="19" t="s">
         <v>159</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H20" s="24">
         <v>18</v>
@@ -2728,7 +2728,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>20</v>
@@ -2737,11 +2737,11 @@
         <v>5</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P20" s="28" t="s">
         <v>19</v>
@@ -2756,7 +2756,7 @@
         <v>155</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="U20" s="19" t="s">
         <v>156</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H21" s="11">
         <v>19</v>
@@ -2789,7 +2789,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>20</v>
@@ -2802,7 +2802,7 @@
         <v>67</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P21" s="28" t="s">
         <v>19</v>
@@ -2817,7 +2817,7 @@
         <v>158</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="U21" s="19" t="s">
         <v>159</v>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="12" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H22" s="24">
         <v>20</v>
@@ -2850,7 +2850,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>20</v>
@@ -2863,10 +2863,10 @@
       </c>
       <c r="N22" s="27"/>
       <c r="O22" s="23" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="19">
         <v>6</v>
@@ -2878,7 +2878,7 @@
         <v>155</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="U22" s="19" t="s">
         <v>156</v>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H23" s="24">
         <v>21</v>
@@ -2911,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>20</v>
@@ -2924,7 +2924,7 @@
         <v>69</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="P23" s="28" t="s">
         <v>19</v>
@@ -2939,7 +2939,7 @@
         <v>158</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="U23" s="19" t="s">
         <v>159</v>
@@ -2972,7 +2972,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>20</v>
@@ -2985,7 +2985,7 @@
         <v>82</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="P24" s="28" t="s">
         <v>19</v>
@@ -3000,7 +3000,7 @@
         <v>158</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="U24" s="19" t="s">
         <v>159</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H25" s="24">
         <v>23</v>
@@ -3033,7 +3033,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>20</v>
@@ -3046,7 +3046,7 @@
         <v>68</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="P25" s="28" t="s">
         <v>19</v>
@@ -3061,7 +3061,7 @@
         <v>158</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="U25" s="19" t="s">
         <v>159</v>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H26" s="24">
         <v>24</v>
@@ -3094,7 +3094,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>20</v>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="N26" s="27"/>
       <c r="O26" s="23" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="P26" s="28" t="s">
         <v>19</v>
@@ -3122,7 +3122,7 @@
         <v>155</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="U26" s="19" t="s">
         <v>156</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H27" s="11">
         <v>25</v>
@@ -3155,7 +3155,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>20</v>
@@ -3168,7 +3168,7 @@
         <v>67</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="P27" s="28" t="s">
         <v>19</v>
@@ -3183,7 +3183,7 @@
         <v>158</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="U27" s="19" t="s">
         <v>159</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="12" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -3216,7 +3216,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>20</v>
@@ -3229,7 +3229,7 @@
         <v>82</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="P28" s="28" t="s">
         <v>19</v>
@@ -3244,7 +3244,7 @@
         <v>158</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="U28" s="19" t="s">
         <v>159</v>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="12" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="H29" s="24">
         <v>27</v>
@@ -3277,7 +3277,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>20</v>
@@ -3290,7 +3290,7 @@
         <v>84</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="P29" s="28" t="s">
         <v>19</v>
@@ -3305,7 +3305,7 @@
         <v>158</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="U29" s="19" t="s">
         <v>159</v>
@@ -3322,7 +3322,7 @@
         <v>123</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>10</v>
@@ -3335,7 +3335,9 @@
       <c r="I30" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="33"/>
+      <c r="J30" s="13" t="s">
+        <v>266</v>
+      </c>
       <c r="K30" s="14"/>
       <c r="L30" s="15"/>
       <c r="M30" s="16"/>
@@ -13770,14 +13772,14 @@
         <v>123</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>146</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="32" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="H31" s="24">
         <v>29</v>
@@ -13786,7 +13788,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>20</v>
@@ -13799,7 +13801,7 @@
         <v>103</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>19</v>
@@ -13814,7 +13816,7 @@
         <v>158</v>
       </c>
       <c r="T31" s="36" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="U31" s="34" t="s">
         <v>159</v>
@@ -13831,14 +13833,14 @@
         <v>123</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H32" s="24">
         <v>30</v>
@@ -13847,7 +13849,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>20</v>
@@ -13860,7 +13862,7 @@
         <v>83</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="P32" s="28" t="s">
         <v>19</v>
@@ -13875,7 +13877,7 @@
         <v>158</v>
       </c>
       <c r="T32" s="21" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="U32" s="19" t="s">
         <v>159</v>
@@ -14071,12 +14073,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -14091,6 +14087,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V7" r:id="rId1"/>

--- a/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
@@ -518,12 +518,6 @@
     <t>Ubicar conceptualizaciones de la derivada (como límite de secantes que se aproximan a un punto, como límite lateral de aproximación a un punto, como pendiente de la recta tangente, como límite de razón de cambios o razón de cambio instantáneo, etc.) para emparejarlos.</t>
   </si>
   <si>
-    <t>Aproxima algunas derivadas usando límites laterales</t>
-  </si>
-  <si>
-    <t>Actividad en que se aproxima el valor de la pendiente de la recta tangente a una función en un punto aplicando límites laterales</t>
-  </si>
-  <si>
     <t>Calcula la función derivada usando Geogebra</t>
   </si>
   <si>
@@ -852,6 +846,12 @@
   </si>
   <si>
     <t>Actividad sobre El análisis de gráficas</t>
+  </si>
+  <si>
+    <t>Calcula derivadas de funciones</t>
+  </si>
+  <si>
+    <t>Actividad para practicar el cálculo de las derivadas</t>
   </si>
 </sst>
 </file>
@@ -1161,34 +1161,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,6 +1210,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1539,7 +1539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1568,94 +1568,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickTop="1">
       <c r="A3" s="7" t="s">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>19</v>
@@ -1710,7 +1710,7 @@
         <v>155</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U3" s="19" t="s">
         <v>156</v>
@@ -1756,7 +1756,7 @@
         <v>103</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>19</v>
@@ -1771,7 +1771,7 @@
         <v>158</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>159</v>
@@ -1804,7 +1804,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>20</v>
@@ -1832,7 +1832,7 @@
         <v>158</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U5" s="19" t="s">
         <v>159</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="12" t="s">
-        <v>164</v>
+        <v>274</v>
       </c>
       <c r="H6" s="11">
         <v>4</v>
@@ -1865,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>20</v>
@@ -1878,7 +1878,7 @@
         <v>67</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>19</v>
@@ -1893,7 +1893,7 @@
         <v>158</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U6" s="19" t="s">
         <v>159</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H7" s="24">
         <v>5</v>
@@ -1926,7 +1926,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>20</v>
@@ -1939,7 +1939,7 @@
         <v>120</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>19</v>
@@ -1954,13 +1954,13 @@
         <v>158</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U7" s="19" t="s">
         <v>159</v>
       </c>
       <c r="V7" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H8" s="24">
         <v>6</v>
@@ -1990,7 +1990,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>20</v>
@@ -1999,11 +1999,11 @@
         <v>5</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>20</v>
@@ -2018,7 +2018,7 @@
         <v>155</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="U8" s="19" t="s">
         <v>156</v>
@@ -2051,7 +2051,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>20</v>
@@ -2064,7 +2064,7 @@
         <v>82</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P9" s="28" t="s">
         <v>19</v>
@@ -2079,7 +2079,7 @@
         <v>158</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U9" s="19" t="s">
         <v>159</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H10" s="24">
         <v>8</v>
@@ -2112,7 +2112,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>20</v>
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P10" s="28" t="s">
         <v>19</v>
@@ -2140,7 +2140,7 @@
         <v>158</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U10" s="19" t="s">
         <v>159</v>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H11" s="24">
         <v>9</v>
@@ -2173,7 +2173,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>20</v>
@@ -2186,7 +2186,7 @@
         <v>67</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P11" s="28" t="s">
         <v>19</v>
@@ -2201,7 +2201,7 @@
         <v>158</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="U11" s="19" t="s">
         <v>159</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H12" s="11">
         <v>10</v>
@@ -2234,7 +2234,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         <v>120</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P12" s="28" t="s">
         <v>19</v>
@@ -2262,13 +2262,13 @@
         <v>158</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U12" s="19" t="s">
         <v>159</v>
       </c>
       <c r="V12" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H13" s="24">
         <v>11</v>
@@ -2298,7 +2298,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>20</v>
@@ -2311,7 +2311,7 @@
         <v>94</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P13" s="28" t="s">
         <v>19</v>
@@ -2326,7 +2326,7 @@
         <v>158</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U13" s="19" t="s">
         <v>159</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H14" s="24">
         <v>12</v>
@@ -2359,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>20</v>
@@ -2372,7 +2372,7 @@
         <v>67</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P14" s="28" t="s">
         <v>19</v>
@@ -2387,7 +2387,7 @@
         <v>158</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U14" s="19" t="s">
         <v>159</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H15" s="11">
         <v>13</v>
@@ -2420,7 +2420,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>20</v>
@@ -2433,7 +2433,7 @@
         <v>103</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>19</v>
@@ -2448,7 +2448,7 @@
         <v>158</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U15" s="19" t="s">
         <v>159</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H16" s="24">
         <v>14</v>
@@ -2481,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>20</v>
@@ -2494,7 +2494,7 @@
         <v>120</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P16" s="28" t="s">
         <v>20</v>
@@ -2509,13 +2509,13 @@
         <v>158</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U16" s="19" t="s">
         <v>159</v>
       </c>
       <c r="V16" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:2048 2054:3072 3074:4094 4100:6140 6146:10239 10241:11263 11265:13312 13318:14336 14338:15358 15364:16384" s="4" customFormat="1" ht="12.5" customHeight="1">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H17" s="24">
         <v>15</v>
@@ -2545,7 +2545,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>20</v>
@@ -2558,7 +2558,7 @@
         <v>93</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P17" s="28" t="s">
         <v>19</v>
@@ -2573,7 +2573,7 @@
         <v>158</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="U17" s="19" t="s">
         <v>159</v>
@@ -2606,7 +2606,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>20</v>
@@ -2619,7 +2619,7 @@
         <v>82</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P18" s="28" t="s">
         <v>19</v>
@@ -2634,7 +2634,7 @@
         <v>158</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U18" s="19" t="s">
         <v>159</v>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H19" s="24">
         <v>17</v>
@@ -2667,7 +2667,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>20</v>
@@ -2680,7 +2680,7 @@
         <v>103</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P19" s="28" t="s">
         <v>19</v>
@@ -2695,7 +2695,7 @@
         <v>158</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="U19" s="19" t="s">
         <v>159</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H20" s="24">
         <v>18</v>
@@ -2728,7 +2728,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>20</v>
@@ -2737,11 +2737,11 @@
         <v>5</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P20" s="28" t="s">
         <v>19</v>
@@ -2756,7 +2756,7 @@
         <v>155</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U20" s="19" t="s">
         <v>156</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H21" s="11">
         <v>19</v>
@@ -2789,7 +2789,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>20</v>
@@ -2802,7 +2802,7 @@
         <v>67</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P21" s="28" t="s">
         <v>19</v>
@@ -2817,7 +2817,7 @@
         <v>158</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U21" s="19" t="s">
         <v>159</v>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H22" s="24">
         <v>20</v>
@@ -2850,7 +2850,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>20</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="N22" s="27"/>
       <c r="O22" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P22" s="28" t="s">
         <v>20</v>
@@ -2878,7 +2878,7 @@
         <v>155</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U22" s="19" t="s">
         <v>156</v>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H23" s="24">
         <v>21</v>
@@ -2911,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>20</v>
@@ -2924,7 +2924,7 @@
         <v>69</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P23" s="28" t="s">
         <v>19</v>
@@ -2939,7 +2939,7 @@
         <v>158</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U23" s="19" t="s">
         <v>159</v>
@@ -2972,7 +2972,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>20</v>
@@ -2985,7 +2985,7 @@
         <v>82</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P24" s="28" t="s">
         <v>19</v>
@@ -3000,7 +3000,7 @@
         <v>158</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U24" s="19" t="s">
         <v>159</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H25" s="24">
         <v>23</v>
@@ -3033,7 +3033,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>20</v>
@@ -3046,7 +3046,7 @@
         <v>68</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P25" s="28" t="s">
         <v>19</v>
@@ -3061,7 +3061,7 @@
         <v>158</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U25" s="19" t="s">
         <v>159</v>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H26" s="24">
         <v>24</v>
@@ -3094,7 +3094,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>20</v>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="N26" s="27"/>
       <c r="O26" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P26" s="28" t="s">
         <v>19</v>
@@ -3122,7 +3122,7 @@
         <v>155</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U26" s="19" t="s">
         <v>156</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H27" s="11">
         <v>25</v>
@@ -3155,7 +3155,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>20</v>
@@ -3168,7 +3168,7 @@
         <v>67</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P27" s="28" t="s">
         <v>19</v>
@@ -3183,7 +3183,7 @@
         <v>158</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U27" s="19" t="s">
         <v>159</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -3216,7 +3216,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>20</v>
@@ -3229,7 +3229,7 @@
         <v>82</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P28" s="28" t="s">
         <v>19</v>
@@ -3244,7 +3244,7 @@
         <v>158</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U28" s="19" t="s">
         <v>159</v>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H29" s="24">
         <v>27</v>
@@ -3277,7 +3277,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>20</v>
@@ -3290,7 +3290,7 @@
         <v>84</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P29" s="28" t="s">
         <v>19</v>
@@ -3305,7 +3305,7 @@
         <v>158</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="U29" s="19" t="s">
         <v>159</v>
@@ -3322,7 +3322,7 @@
         <v>123</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>10</v>
@@ -3336,7 +3336,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="15"/>
@@ -13772,7 +13772,7 @@
         <v>123</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>146</v>
@@ -13788,7 +13788,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>20</v>
@@ -13801,7 +13801,7 @@
         <v>103</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>19</v>
@@ -13816,7 +13816,7 @@
         <v>158</v>
       </c>
       <c r="T31" s="36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="U31" s="34" t="s">
         <v>159</v>
@@ -13833,14 +13833,14 @@
         <v>123</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H32" s="24">
         <v>30</v>
@@ -13849,7 +13849,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>20</v>
@@ -13862,7 +13862,7 @@
         <v>83</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P32" s="28" t="s">
         <v>19</v>
@@ -13877,7 +13877,7 @@
         <v>158</v>
       </c>
       <c r="T32" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U32" s="19" t="s">
         <v>159</v>
@@ -14073,6 +14073,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -14087,12 +14093,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V7" r:id="rId1"/>

--- a/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="14140"/>
+    <workbookView xWindow="16140" yWindow="1720" windowWidth="24700" windowHeight="14140"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -608,12 +608,6 @@
     <t>La razón de cambio en problemas cotidianos</t>
   </si>
   <si>
-    <t>Calcula límites aplicando la Regla de L'Hopital</t>
-  </si>
-  <si>
-    <t>Actividad para aplicar la Regla de L'Hopital en el cálculo de límites</t>
-  </si>
-  <si>
     <t>Fin de la unidad</t>
   </si>
   <si>
@@ -852,6 +846,12 @@
   </si>
   <si>
     <t>Actividad para practicar el cálculo de las derivadas</t>
+  </si>
+  <si>
+    <t>Calcula límites aplicando la regla de L'Hopital</t>
+  </si>
+  <si>
+    <t>Actividad para aplicar la regla de L'Hopital en el cálculo de límites</t>
   </si>
 </sst>
 </file>
@@ -1161,16 +1161,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,24 +1228,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1539,7 +1539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1568,94 +1568,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickBot="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickTop="1">
       <c r="A3" s="7" t="s">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>19</v>
@@ -1710,7 +1710,7 @@
         <v>155</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U3" s="19" t="s">
         <v>156</v>
@@ -1756,7 +1756,7 @@
         <v>103</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>19</v>
@@ -1771,7 +1771,7 @@
         <v>158</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>159</v>
@@ -1804,7 +1804,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>20</v>
@@ -1832,7 +1832,7 @@
         <v>158</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U5" s="19" t="s">
         <v>159</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H6" s="11">
         <v>4</v>
@@ -1865,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>20</v>
@@ -1893,7 +1893,7 @@
         <v>158</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U6" s="19" t="s">
         <v>159</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H7" s="24">
         <v>5</v>
@@ -1926,7 +1926,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>20</v>
@@ -1939,7 +1939,7 @@
         <v>120</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>19</v>
@@ -1954,7 +1954,7 @@
         <v>158</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U7" s="19" t="s">
         <v>159</v>
@@ -1999,11 +1999,11 @@
         <v>5</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>20</v>
@@ -2018,7 +2018,7 @@
         <v>155</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U8" s="19" t="s">
         <v>156</v>
@@ -2051,7 +2051,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>20</v>
@@ -2079,7 +2079,7 @@
         <v>158</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U9" s="19" t="s">
         <v>159</v>
@@ -2112,7 +2112,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>20</v>
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P10" s="28" t="s">
         <v>19</v>
@@ -2140,7 +2140,7 @@
         <v>158</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U10" s="19" t="s">
         <v>159</v>
@@ -2201,7 +2201,7 @@
         <v>158</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U11" s="19" t="s">
         <v>159</v>
@@ -2247,7 +2247,7 @@
         <v>120</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P12" s="28" t="s">
         <v>19</v>
@@ -2262,7 +2262,7 @@
         <v>158</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U12" s="19" t="s">
         <v>159</v>
@@ -2311,7 +2311,7 @@
         <v>94</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P13" s="28" t="s">
         <v>19</v>
@@ -2326,7 +2326,7 @@
         <v>158</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U13" s="19" t="s">
         <v>159</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H14" s="24">
         <v>12</v>
@@ -2359,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>20</v>
@@ -2372,7 +2372,7 @@
         <v>67</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P14" s="28" t="s">
         <v>19</v>
@@ -2387,7 +2387,7 @@
         <v>158</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U14" s="19" t="s">
         <v>159</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H15" s="11">
         <v>13</v>
@@ -2420,7 +2420,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>20</v>
@@ -2433,7 +2433,7 @@
         <v>103</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>19</v>
@@ -2448,7 +2448,7 @@
         <v>158</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U15" s="19" t="s">
         <v>159</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H16" s="24">
         <v>14</v>
@@ -2481,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>20</v>
@@ -2494,7 +2494,7 @@
         <v>120</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P16" s="28" t="s">
         <v>20</v>
@@ -2509,7 +2509,7 @@
         <v>158</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="U16" s="19" t="s">
         <v>159</v>
@@ -2573,7 +2573,7 @@
         <v>158</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U17" s="19" t="s">
         <v>159</v>
@@ -2606,7 +2606,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>20</v>
@@ -2634,7 +2634,7 @@
         <v>158</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U18" s="19" t="s">
         <v>159</v>
@@ -2695,7 +2695,7 @@
         <v>158</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U19" s="19" t="s">
         <v>159</v>
@@ -2737,7 +2737,7 @@
         <v>5</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="23" t="s">
@@ -2756,7 +2756,7 @@
         <v>155</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="U20" s="19" t="s">
         <v>156</v>
@@ -2789,7 +2789,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>20</v>
@@ -2817,7 +2817,7 @@
         <v>158</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U21" s="19" t="s">
         <v>159</v>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H22" s="24">
         <v>20</v>
@@ -2850,7 +2850,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>20</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="N22" s="27"/>
       <c r="O22" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P22" s="28" t="s">
         <v>20</v>
@@ -2878,7 +2878,7 @@
         <v>155</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U22" s="19" t="s">
         <v>156</v>
@@ -2924,7 +2924,7 @@
         <v>69</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P23" s="28" t="s">
         <v>19</v>
@@ -2939,7 +2939,7 @@
         <v>158</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U23" s="19" t="s">
         <v>159</v>
@@ -2972,7 +2972,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>20</v>
@@ -2985,7 +2985,7 @@
         <v>82</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P24" s="28" t="s">
         <v>19</v>
@@ -3000,7 +3000,7 @@
         <v>158</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U24" s="19" t="s">
         <v>159</v>
@@ -3046,7 +3046,7 @@
         <v>68</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P25" s="28" t="s">
         <v>19</v>
@@ -3061,7 +3061,7 @@
         <v>158</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U25" s="19" t="s">
         <v>159</v>
@@ -3094,7 +3094,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>20</v>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="N26" s="27"/>
       <c r="O26" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P26" s="28" t="s">
         <v>19</v>
@@ -3122,7 +3122,7 @@
         <v>155</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U26" s="19" t="s">
         <v>156</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="12" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="H27" s="11">
         <v>25</v>
@@ -3155,7 +3155,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>20</v>
@@ -3168,7 +3168,7 @@
         <v>67</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P27" s="28" t="s">
         <v>19</v>
@@ -3183,7 +3183,7 @@
         <v>158</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U27" s="19" t="s">
         <v>159</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -3216,7 +3216,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>20</v>
@@ -3229,7 +3229,7 @@
         <v>82</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P28" s="28" t="s">
         <v>19</v>
@@ -3244,7 +3244,7 @@
         <v>158</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U28" s="19" t="s">
         <v>159</v>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H29" s="24">
         <v>27</v>
@@ -3277,7 +3277,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>20</v>
@@ -3290,7 +3290,7 @@
         <v>84</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P29" s="28" t="s">
         <v>19</v>
@@ -3305,7 +3305,7 @@
         <v>158</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U29" s="19" t="s">
         <v>159</v>
@@ -3322,7 +3322,7 @@
         <v>123</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>10</v>
@@ -3336,7 +3336,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="15"/>
@@ -13772,7 +13772,7 @@
         <v>123</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>146</v>
@@ -13788,7 +13788,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>20</v>
@@ -13801,7 +13801,7 @@
         <v>103</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>19</v>
@@ -13816,7 +13816,7 @@
         <v>158</v>
       </c>
       <c r="T31" s="36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U31" s="34" t="s">
         <v>159</v>
@@ -13833,14 +13833,14 @@
         <v>123</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H32" s="24">
         <v>30</v>
@@ -13849,7 +13849,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>20</v>
@@ -13862,7 +13862,7 @@
         <v>83</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P32" s="28" t="s">
         <v>19</v>
@@ -13877,7 +13877,7 @@
         <v>158</v>
       </c>
       <c r="T32" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U32" s="19" t="s">
         <v>159</v>
@@ -14073,12 +14073,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -14093,6 +14087,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V7" r:id="rId1"/>

--- a/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="1720" windowWidth="24700" windowHeight="14140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -734,15 +734,9 @@
     <t>Plantear en la formulación de las preguntas que el estudiante ingrese al vínculo https://tube.geogebra.org/m/2108413 y formular preguntas en las que los estudiantes logren identificar que alfa muestra la solución, porque en alfa la pendiente es la misma que la de la recta que une f(a) con f(b). Hacer ver que hay intervalos con dos alfas posibles,  Preguntar por ejemplo dónde deben ponerse a y b para que el Teorema sea el de Rolle, si es falsa o verdadera una afirmación del tipo "El teorema de Lagrange no se puede aplicar porque f(a) =/ f(b)" etc.</t>
   </si>
   <si>
-    <t>Interactivo para explicar cuál es la razón por la que la función exponencial permanece invariante bajo derivación exactamente para el caso en que la base es el número de Euler</t>
-  </si>
-  <si>
     <t>Incluir fichas para explicar la pregunta del recurso. Especificar qué es el logaritmo neperiano, cuáles son las funciones y derivadas de la familia exponencial f(x)=a^x y mostrar que justo cuando a=e la función y su derivada coinciden (ver por ejemplo http://tananyag.geomatech.hu/m/634393), Ampliar a cómo se cálcula la derivada de e^f(x) enfatizando lo que sucede por composición.  Explicitar la regla de la cadena, errores comunes de cálculo, ejemplos de aplicación. Incluir ejercitación.</t>
   </si>
   <si>
-    <t>¿Por qué  derivada de la exponencial es ella misma?</t>
-  </si>
-  <si>
     <t xml:space="preserve">El estudiante debe poder aportar argumentos para validar sus afirmaciones, conjeturar, usar instrumentos de cálculo indicando su uso, etc. </t>
   </si>
   <si>
@@ -852,6 +846,12 @@
   </si>
   <si>
     <t>Actividad para aplicar la regla de L'Hopital en el cálculo de límites</t>
+  </si>
+  <si>
+    <t>Derivación de funciones exponenciales y logarítmicas</t>
+  </si>
+  <si>
+    <t>Interactivo para trabajar en el cálculo de derivadas de funciones exponenciales y logarítmicas</t>
   </si>
 </sst>
 </file>
@@ -1161,34 +1161,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,6 +1210,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1539,7 +1539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1568,94 +1568,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickTop="1">
       <c r="A3" s="7" t="s">
@@ -1804,7 +1804,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>20</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H6" s="11">
         <v>4</v>
@@ -1865,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>20</v>
@@ -1926,7 +1926,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>20</v>
@@ -2051,7 +2051,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>20</v>
@@ -2262,7 +2262,7 @@
         <v>158</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U12" s="19" t="s">
         <v>159</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H14" s="24">
         <v>12</v>
@@ -2359,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>20</v>
@@ -2387,7 +2387,7 @@
         <v>158</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U14" s="19" t="s">
         <v>159</v>
@@ -2481,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>20</v>
@@ -2509,7 +2509,7 @@
         <v>158</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U16" s="19" t="s">
         <v>159</v>
@@ -2606,7 +2606,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>20</v>
@@ -2737,7 +2737,7 @@
         <v>5</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="23" t="s">
@@ -2789,7 +2789,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>20</v>
@@ -2817,7 +2817,7 @@
         <v>158</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U21" s="19" t="s">
         <v>159</v>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="12" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="H22" s="24">
         <v>20</v>
@@ -2850,7 +2850,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>20</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="N22" s="27"/>
       <c r="O22" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P22" s="28" t="s">
         <v>20</v>
@@ -2924,7 +2924,7 @@
         <v>69</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P23" s="28" t="s">
         <v>19</v>
@@ -2972,7 +2972,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>20</v>
@@ -2985,7 +2985,7 @@
         <v>82</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P24" s="28" t="s">
         <v>19</v>
@@ -3000,7 +3000,7 @@
         <v>158</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="U24" s="19" t="s">
         <v>159</v>
@@ -3046,7 +3046,7 @@
         <v>68</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P25" s="28" t="s">
         <v>19</v>
@@ -3094,7 +3094,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>20</v>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="N26" s="27"/>
       <c r="O26" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P26" s="28" t="s">
         <v>19</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H27" s="11">
         <v>25</v>
@@ -3155,7 +3155,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>20</v>
@@ -3168,7 +3168,7 @@
         <v>67</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P27" s="28" t="s">
         <v>19</v>
@@ -3183,7 +3183,7 @@
         <v>158</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U27" s="19" t="s">
         <v>159</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -3216,7 +3216,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>20</v>
@@ -3244,7 +3244,7 @@
         <v>158</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U28" s="19" t="s">
         <v>159</v>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H29" s="24">
         <v>27</v>
@@ -3277,7 +3277,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>20</v>
@@ -3290,7 +3290,7 @@
         <v>84</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P29" s="28" t="s">
         <v>19</v>
@@ -3305,7 +3305,7 @@
         <v>158</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U29" s="19" t="s">
         <v>159</v>
@@ -3336,7 +3336,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="15"/>
@@ -13788,7 +13788,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>20</v>
@@ -13801,7 +13801,7 @@
         <v>103</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>19</v>
@@ -13816,7 +13816,7 @@
         <v>158</v>
       </c>
       <c r="T31" s="36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U31" s="34" t="s">
         <v>159</v>
@@ -14073,6 +14073,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -14087,12 +14093,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V7" r:id="rId1"/>

--- a/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion04/Escaleta_MA_11_04_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620"/>
+    <workbookView xWindow="-26720" yWindow="640" windowWidth="25600" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1161,16 +1161,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,24 +1228,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1539,7 +1539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1568,94 +1568,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickBot="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" ht="12.5" customHeight="1" thickTop="1">
       <c r="A3" s="7" t="s">
@@ -14073,12 +14073,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -14093,6 +14087,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V7" r:id="rId1"/>
